--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-326787.6858820206</v>
+        <v>-283366.1517684325</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17367124.05617156</v>
+        <v>16693787.93026803</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484442</v>
+        <v>492028.9342484443</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9003493.197645623</v>
+        <v>9025611.876329178</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>226.5100370116147</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -665,7 +665,7 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -677,7 +677,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.568665463089996</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.5245828984021</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>53.0699117271698</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -832,7 +832,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,25 +896,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>327.2879775827834</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>245.440512489918</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>112.1673564559255</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>125.4289004454252</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55.03348083355984</v>
+        <v>112.7488900228308</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1294,16 +1294,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>93.39274128391442</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>133.2676081433619</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>133.3482158271286</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225813</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1588,7 +1588,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>129.713962706846</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1622,10 +1622,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>205.4934994164267</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>11.08181973265139</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>103.8284742946036</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225763</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1859,7 +1859,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.4422996387374</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1910,7 +1910,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>114.1905507831696</v>
       </c>
     </row>
     <row r="18">
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>155.2022955251543</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2090,7 +2090,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>124.9768468444016</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2147,7 +2147,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>114.1905507831705</v>
       </c>
     </row>
     <row r="21">
@@ -2248,16 +2248,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>35.3478058351354</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2293,10 +2293,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>172.6623007436909</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2479,22 +2479,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>130.3463188443669</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225841</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>15.57230972412476</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225773</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2776,7 +2776,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225774</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225763</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735226789</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999607</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083129</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972019</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131897</v>
       </c>
       <c r="F38" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147863</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828707</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311179</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925402</v>
+        <v>71.12675199790337</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755938</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760553</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854137</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043296</v>
+        <v>389.118296962979</v>
       </c>
       <c r="X38" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063844</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832451</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>178.2118294516993</v>
       </c>
       <c r="C40" t="n">
-        <v>154.60038406286</v>
+        <v>159.1474913215093</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317452</v>
+        <v>152.5306097903945</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730228</v>
+        <v>156.3718206316721</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>163.2513804177634</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856833</v>
+        <v>152.2467591443326</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>18.40787475442279</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432407</v>
+        <v>76.08474665297342</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934494</v>
+        <v>9.515040001583849</v>
       </c>
       <c r="S40" t="n">
-        <v>141.413244676236</v>
+        <v>145.9603519348853</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772313</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593277</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681758</v>
       </c>
       <c r="W40" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894734</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398237</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402855</v>
+        <v>213.4568708989348</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999607</v>
       </c>
       <c r="C41" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083129</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972019</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131897</v>
       </c>
       <c r="F41" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147863</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828707</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311179</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925402</v>
+        <v>71.12675199790337</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755938</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760553</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854137</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043296</v>
+        <v>389.118296962979</v>
       </c>
       <c r="X41" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063844</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832451</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>178.2118294516993</v>
       </c>
       <c r="C43" t="n">
-        <v>154.60038406286</v>
+        <v>159.1474913215093</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>152.5306097903945</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730228</v>
+        <v>156.3718206316721</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>163.2513804177634</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856833</v>
+        <v>152.2467591443326</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>18.40787475442309</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432407</v>
+        <v>76.08474665297342</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934494</v>
+        <v>9.515040001583849</v>
       </c>
       <c r="S43" t="n">
-        <v>141.413244676236</v>
+        <v>145.9603519348853</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772313</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593277</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681758</v>
       </c>
       <c r="W43" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894734</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398237</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402855</v>
+        <v>213.4568708989348</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999607</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083129</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972019</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131897</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147863</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828707</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311179</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925402</v>
+        <v>71.12675199790337</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755938</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760553</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854137</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043296</v>
+        <v>389.118296962979</v>
       </c>
       <c r="X44" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063844</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832451</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>178.2118294516993</v>
       </c>
       <c r="C46" t="n">
-        <v>154.60038406286</v>
+        <v>159.1474913215093</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>152.5306097903945</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730228</v>
+        <v>156.3718206316721</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>163.2513804177634</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856833</v>
+        <v>152.2467591443326</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>18.40787475442247</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432407</v>
+        <v>76.08474665297342</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934494</v>
+        <v>9.515040001583849</v>
       </c>
       <c r="S46" t="n">
-        <v>141.413244676236</v>
+        <v>145.9603519348853</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772313</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593277</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681758</v>
       </c>
       <c r="W46" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894734</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398237</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402855</v>
+        <v>213.4568708989348</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1245.9111659461</v>
+        <v>1270.144995079233</v>
       </c>
       <c r="C2" t="n">
-        <v>1211.809097169927</v>
+        <v>1236.042926303061</v>
       </c>
       <c r="D2" t="n">
-        <v>1179.939716384776</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E2" t="n">
-        <v>751.3580421220443</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F2" t="n">
-        <v>323.4906125312521</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W2" t="n">
-        <v>1691.558515471236</v>
+        <v>1922.331195343315</v>
       </c>
       <c r="X2" t="n">
-        <v>1676.45645609095</v>
+        <v>1907.229135963029</v>
       </c>
       <c r="Y2" t="n">
-        <v>1268.170332390604</v>
+        <v>1498.943012262683</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>807.2216621053868</v>
+        <v>1013.503637065321</v>
       </c>
       <c r="C4" t="n">
-        <v>634.6599505886118</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>634.6599505886118</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>464.9019468393491</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1235.38760622724</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1655.056855453022</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1655.056855453022</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1410.227921950848</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1138.201517537139</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="X4" t="n">
-        <v>1138.201517537139</v>
+        <v>1432.7419264702</v>
       </c>
       <c r="Y4" t="n">
-        <v>910.7818468512476</v>
+        <v>1205.322255784308</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>1267.919211788425</v>
       </c>
       <c r="C5" t="n">
-        <v>822.1393557439876</v>
+        <v>829.7767389718487</v>
       </c>
       <c r="D5" t="n">
-        <v>491.5454389937014</v>
+        <v>797.9073581866973</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2118.422015902528</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1713.566561313561</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>1698.464501933276</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1290.178378232929</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>884.4397056785397</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="C7" t="n">
-        <v>711.8779941617646</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D7" t="n">
-        <v>546.0000013632873</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E7" t="n">
-        <v>376.2419976140245</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1549.069749750006</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1549.069749750006</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1549.069749750006</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1549.069749750006</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1549.069749750006</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1303.677995083419</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1076.258324397527</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>567.941864571967</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C8" t="n">
-        <v>533.8397957957944</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D8" t="n">
-        <v>97.9300109702389</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E8" t="n">
-        <v>68.19567016893814</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>44.36864461854994</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>44.36864461854994</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>44.36864461854994</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>44.36864461854994</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>479.6233320714678</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>479.6233320714678</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>479.6233320714678</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>479.6233320714678</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>479.6233320714678</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>953.7174030612897</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1502.779380215845</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2049.27816617444</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2218.432230927497</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2218.432230927497</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2218.432230927497</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2218.432230927497</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>1855.815280861323</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W8" t="n">
-        <v>1450.959826272356</v>
+        <v>2326.371599383719</v>
       </c>
       <c r="X8" t="n">
-        <v>1031.817362851667</v>
+        <v>1907.229135963029</v>
       </c>
       <c r="Y8" t="n">
-        <v>623.5312391513204</v>
+        <v>1498.943012262683</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>550.5403896098427</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>444.083928446485</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>348.9936395930383</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>254.873224919992</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>171.4893865361536</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>86.10429680233747</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>44.36864461854994</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>70.43231777900753</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>394.9906427452199</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>944.0526198997752</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1590.435628003019</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1707.608406097359</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1644.152968545742</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1513.974324876343</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1337.637777876312</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1138.520259938311</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>953.197505671505</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>798.3300699103851</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>671.8442906896058</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>311.2664584423093</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>138.7047469255342</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>44.36864461854994</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>44.36864461854994</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>44.36864461854994</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>44.36864461854994</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>44.36864461854994</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>44.36864461854994</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>130.9483297832398</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>130.9483297832398</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>549.1582115512008</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1008.642078732114</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1450.900881889758</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1870.57013111554</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2218.077025085882</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2218.432230927497</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2218.432230927497</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2059.190862225493</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1813.311415803948</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1534.878415057054</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1247.922906927484</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>975.8965025137757</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>730.5047478471881</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>503.0850771612964</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2518.050233702663</v>
+        <v>2364.606598315921</v>
       </c>
       <c r="C11" t="n">
-        <v>2079.907760886087</v>
+        <v>1926.464125499344</v>
       </c>
       <c r="D11" t="n">
-        <v>1643.997976060531</v>
+        <v>1490.554340673789</v>
       </c>
       <c r="E11" t="n">
-        <v>1210.223231218826</v>
+        <v>1056.779595832084</v>
       </c>
       <c r="F11" t="n">
-        <v>782.355801628034</v>
+        <v>628.9121662412917</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9579702512979</v>
+        <v>227.5143348645552</v>
       </c>
       <c r="H11" t="n">
-        <v>91.82781569451413</v>
+        <v>92.90058926519976</v>
       </c>
       <c r="I11" t="n">
-        <v>91.41102632165413</v>
+        <v>92.90058926519976</v>
       </c>
       <c r="J11" t="n">
-        <v>526.6657137745719</v>
+        <v>528.1552767181176</v>
       </c>
       <c r="K11" t="n">
-        <v>1361.01600573275</v>
+        <v>1362.505568676296</v>
       </c>
       <c r="L11" t="n">
-        <v>2436.075971985609</v>
+        <v>1362.505568676296</v>
       </c>
       <c r="M11" t="n">
-        <v>3567.287422716079</v>
+        <v>1362.505568676296</v>
       </c>
       <c r="N11" t="n">
-        <v>4570.551316082707</v>
+        <v>2290.041135897691</v>
       </c>
       <c r="O11" t="n">
-        <v>4570.551316082707</v>
+        <v>3270.220802467997</v>
       </c>
       <c r="P11" t="n">
-        <v>4570.551316082707</v>
+        <v>4098.530677301394</v>
       </c>
       <c r="Q11" t="n">
-        <v>4570.551316082707</v>
+        <v>4645.029463259988</v>
       </c>
       <c r="R11" t="n">
-        <v>4570.551316082707</v>
+        <v>4645.029463259988</v>
       </c>
       <c r="S11" t="n">
-        <v>4570.551316082707</v>
+        <v>4645.029463259988</v>
       </c>
       <c r="T11" t="n">
-        <v>4570.551316082707</v>
+        <v>4645.029463259988</v>
       </c>
       <c r="U11" t="n">
-        <v>4311.329013399723</v>
+        <v>4385.807160577005</v>
       </c>
       <c r="V11" t="n">
-        <v>4176.633845897573</v>
+        <v>4023.190210510831</v>
       </c>
       <c r="W11" t="n">
-        <v>3771.778391308607</v>
+        <v>3618.334755921865</v>
       </c>
       <c r="X11" t="n">
-        <v>3352.635927887918</v>
+        <v>3199.192292501175</v>
       </c>
       <c r="Y11" t="n">
-        <v>2944.349804187571</v>
+        <v>2790.906168800829</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>597.5827713129469</v>
+        <v>599.0723342564926</v>
       </c>
       <c r="C12" t="n">
-        <v>491.1263101495892</v>
+        <v>492.6158730931348</v>
       </c>
       <c r="D12" t="n">
-        <v>396.0360212961425</v>
+        <v>397.5255842396881</v>
       </c>
       <c r="E12" t="n">
-        <v>301.9156066230962</v>
+        <v>303.4051695666418</v>
       </c>
       <c r="F12" t="n">
-        <v>218.5317682392578</v>
+        <v>220.0213311828034</v>
       </c>
       <c r="G12" t="n">
-        <v>133.1466785054417</v>
+        <v>134.6362414489873</v>
       </c>
       <c r="H12" t="n">
-        <v>91.41102632165413</v>
+        <v>92.90058926519976</v>
       </c>
       <c r="I12" t="n">
-        <v>117.4746994821117</v>
+        <v>118.9642624256574</v>
       </c>
       <c r="J12" t="n">
-        <v>442.0330244483241</v>
+        <v>443.5225873918697</v>
       </c>
       <c r="K12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="L12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="M12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="N12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="O12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="P12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="Q12" t="n">
-        <v>1637.478009706123</v>
+        <v>1638.967572649669</v>
       </c>
       <c r="R12" t="n">
-        <v>1754.650787800463</v>
+        <v>1756.140350744009</v>
       </c>
       <c r="S12" t="n">
-        <v>1691.195350248846</v>
+        <v>1692.684913192392</v>
       </c>
       <c r="T12" t="n">
-        <v>1561.016706579448</v>
+        <v>1562.506269522993</v>
       </c>
       <c r="U12" t="n">
-        <v>1384.680159579416</v>
+        <v>1386.169722522962</v>
       </c>
       <c r="V12" t="n">
-        <v>1185.562641641415</v>
+        <v>1187.052204584961</v>
       </c>
       <c r="W12" t="n">
-        <v>1000.239887374609</v>
+        <v>1001.729450318155</v>
       </c>
       <c r="X12" t="n">
-        <v>845.3724516134893</v>
+        <v>846.862014557035</v>
       </c>
       <c r="Y12" t="n">
-        <v>718.88667239271</v>
+        <v>720.3762353362557</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>941.9070633985853</v>
+        <v>943.3966263421311</v>
       </c>
       <c r="C13" t="n">
-        <v>769.3453518818102</v>
+        <v>770.834914825356</v>
       </c>
       <c r="D13" t="n">
-        <v>603.4673590833329</v>
+        <v>604.9569220268786</v>
       </c>
       <c r="E13" t="n">
-        <v>433.7093553340702</v>
+        <v>435.1989182776159</v>
       </c>
       <c r="F13" t="n">
-        <v>257.0023012958264</v>
+        <v>258.4918642393721</v>
       </c>
       <c r="G13" t="n">
-        <v>91.41102632165413</v>
+        <v>92.90058926519976</v>
       </c>
       <c r="H13" t="n">
-        <v>91.41102632165413</v>
+        <v>92.90058926519976</v>
       </c>
       <c r="I13" t="n">
-        <v>91.41102632165413</v>
+        <v>92.90058926519976</v>
       </c>
       <c r="J13" t="n">
-        <v>177.990711486344</v>
+        <v>179.4802744298896</v>
       </c>
       <c r="K13" t="n">
-        <v>452.7491660574796</v>
+        <v>454.2387290010252</v>
       </c>
       <c r="L13" t="n">
-        <v>870.9590478254407</v>
+        <v>872.4486107689863</v>
       </c>
       <c r="M13" t="n">
-        <v>1330.442915006354</v>
+        <v>1331.932477949899</v>
       </c>
       <c r="N13" t="n">
-        <v>1772.701718163998</v>
+        <v>1774.191281107544</v>
       </c>
       <c r="O13" t="n">
-        <v>2192.37096738978</v>
+        <v>2193.860530333325</v>
       </c>
       <c r="P13" t="n">
-        <v>2539.877861360122</v>
+        <v>2541.367424303667</v>
       </c>
       <c r="Q13" t="n">
-        <v>2708.070636224454</v>
+        <v>2709.560199168</v>
       </c>
       <c r="R13" t="n">
-        <v>2708.070636224454</v>
+        <v>2709.560199168</v>
       </c>
       <c r="S13" t="n">
-        <v>2689.831467181769</v>
+        <v>2550.318830465996</v>
       </c>
       <c r="T13" t="n">
-        <v>2443.952020760225</v>
+        <v>2304.439384044451</v>
       </c>
       <c r="U13" t="n">
-        <v>2165.51902001333</v>
+        <v>2026.006383297557</v>
       </c>
       <c r="V13" t="n">
-        <v>1878.56351188376</v>
+        <v>1739.050875167987</v>
       </c>
       <c r="W13" t="n">
-        <v>1606.537107470052</v>
+        <v>1608.026670413597</v>
       </c>
       <c r="X13" t="n">
-        <v>1361.145352803464</v>
+        <v>1362.63491574701</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.725682117572</v>
+        <v>1135.215245061118</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2441.183407070566</v>
+        <v>2522.504847401169</v>
       </c>
       <c r="C14" t="n">
-        <v>2003.040934253989</v>
+        <v>2084.362374584592</v>
       </c>
       <c r="D14" t="n">
-        <v>1567.131149428434</v>
+        <v>1648.452589759037</v>
       </c>
       <c r="E14" t="n">
-        <v>1133.356404586729</v>
+        <v>1214.677844917332</v>
       </c>
       <c r="F14" t="n">
-        <v>705.4889749959366</v>
+        <v>786.8104153265394</v>
       </c>
       <c r="G14" t="n">
-        <v>304.0911436192005</v>
+        <v>385.4125839498026</v>
       </c>
       <c r="H14" t="n">
-        <v>96.52195228947592</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="I14" t="n">
-        <v>96.10516291661592</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="J14" t="n">
-        <v>531.3598503695339</v>
+        <v>531.5371168459368</v>
       </c>
       <c r="K14" t="n">
-        <v>1365.710142327712</v>
+        <v>1365.887408804115</v>
       </c>
       <c r="L14" t="n">
-        <v>1365.710142327712</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="M14" t="n">
-        <v>1365.710142327712</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="N14" t="n">
-        <v>2281.115753715442</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="O14" t="n">
-        <v>3261.295420285749</v>
+        <v>3421.127041627281</v>
       </c>
       <c r="P14" t="n">
-        <v>4089.605295119145</v>
+        <v>4249.436916460677</v>
       </c>
       <c r="Q14" t="n">
-        <v>4636.104081077739</v>
+        <v>4795.935702419271</v>
       </c>
       <c r="R14" t="n">
-        <v>4805.258145830796</v>
+        <v>4814.121469650944</v>
       </c>
       <c r="S14" t="n">
-        <v>4721.606272014633</v>
+        <v>4814.121469650944</v>
       </c>
       <c r="T14" t="n">
-        <v>4721.606272014633</v>
+        <v>4802.927712345236</v>
       </c>
       <c r="U14" t="n">
-        <v>4462.383969331649</v>
+        <v>4543.705409662252</v>
       </c>
       <c r="V14" t="n">
-        <v>4099.767019265476</v>
+        <v>4181.088459596079</v>
       </c>
       <c r="W14" t="n">
-        <v>3694.911564676509</v>
+        <v>3776.233005007112</v>
       </c>
       <c r="X14" t="n">
-        <v>3275.76910125582</v>
+        <v>3357.090541586423</v>
       </c>
       <c r="Y14" t="n">
-        <v>2867.482977555474</v>
+        <v>2948.804417886076</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.2769079079087</v>
+        <v>602.4541743843117</v>
       </c>
       <c r="C15" t="n">
-        <v>495.820446744551</v>
+        <v>495.997713220954</v>
       </c>
       <c r="D15" t="n">
-        <v>400.7301578911043</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E15" t="n">
-        <v>306.609743218058</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F15" t="n">
-        <v>223.2259048342196</v>
+        <v>223.4031713106226</v>
       </c>
       <c r="G15" t="n">
-        <v>137.8408151004035</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H15" t="n">
-        <v>96.10516291661592</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="I15" t="n">
-        <v>122.1688360770735</v>
+        <v>122.3461025534765</v>
       </c>
       <c r="J15" t="n">
-        <v>446.7271610432859</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="K15" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="L15" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="M15" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="N15" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="O15" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="P15" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S15" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.71084317441</v>
+        <v>1565.888109650813</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.374296174378</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W15" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X15" t="n">
-        <v>850.0665882084511</v>
+        <v>850.2438546848541</v>
       </c>
       <c r="Y15" t="n">
-        <v>723.5808089876718</v>
+        <v>723.7580754640749</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1051.478446755773</v>
+        <v>946.7784664699502</v>
       </c>
       <c r="C16" t="n">
-        <v>878.9167352389978</v>
+        <v>774.2167549531752</v>
       </c>
       <c r="D16" t="n">
-        <v>713.0387424405205</v>
+        <v>608.3387621546979</v>
       </c>
       <c r="E16" t="n">
-        <v>543.2807386912577</v>
+        <v>438.5807584054351</v>
       </c>
       <c r="F16" t="n">
-        <v>366.573684653014</v>
+        <v>261.8737043671912</v>
       </c>
       <c r="G16" t="n">
-        <v>200.9824096788416</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="H16" t="n">
-        <v>96.10516291661592</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="I16" t="n">
-        <v>96.10516291661592</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="J16" t="n">
-        <v>182.6848480813058</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K16" t="n">
-        <v>457.4433026524413</v>
+        <v>457.6205691288444</v>
       </c>
       <c r="L16" t="n">
-        <v>875.6531844204023</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.39585475896</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P16" t="n">
-        <v>2544.571997955083</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S16" t="n">
-        <v>2553.523404117412</v>
+        <v>2694.702870253134</v>
       </c>
       <c r="T16" t="n">
-        <v>2553.523404117412</v>
+        <v>2448.823423831589</v>
       </c>
       <c r="U16" t="n">
-        <v>2275.090403370517</v>
+        <v>2170.390423084695</v>
       </c>
       <c r="V16" t="n">
-        <v>1988.134895240948</v>
+        <v>1883.434914955125</v>
       </c>
       <c r="W16" t="n">
-        <v>1716.108490827239</v>
+        <v>1611.408510541417</v>
       </c>
       <c r="X16" t="n">
-        <v>1470.716736160652</v>
+        <v>1366.016755874829</v>
       </c>
       <c r="Y16" t="n">
-        <v>1243.29706547476</v>
+        <v>1138.597085188937</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2233.614215740841</v>
+        <v>2522.921636774028</v>
       </c>
       <c r="C17" t="n">
-        <v>1795.471742924265</v>
+        <v>2084.779163957451</v>
       </c>
       <c r="D17" t="n">
-        <v>1359.561958098709</v>
+        <v>1648.869379131896</v>
       </c>
       <c r="E17" t="n">
-        <v>925.7872132570043</v>
+        <v>1215.094634290191</v>
       </c>
       <c r="F17" t="n">
-        <v>497.919783666212</v>
+        <v>787.2272046993987</v>
       </c>
       <c r="G17" t="n">
-        <v>96.52195228947592</v>
+        <v>385.8293733226626</v>
       </c>
       <c r="H17" t="n">
-        <v>96.52195228947592</v>
+        <v>96.69921876587888</v>
       </c>
       <c r="I17" t="n">
-        <v>96.10516291661592</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="J17" t="n">
-        <v>531.3598503695339</v>
+        <v>531.5371168459368</v>
       </c>
       <c r="K17" t="n">
-        <v>1365.710142327712</v>
+        <v>1365.887408804115</v>
       </c>
       <c r="L17" t="n">
-        <v>2440.770108580571</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="M17" t="n">
-        <v>3261.295420285749</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="N17" t="n">
-        <v>3261.295420285749</v>
+        <v>2459.133142288647</v>
       </c>
       <c r="O17" t="n">
-        <v>3261.295420285749</v>
+        <v>3439.312808858954</v>
       </c>
       <c r="P17" t="n">
-        <v>4089.605295119145</v>
+        <v>4267.62268369235</v>
       </c>
       <c r="Q17" t="n">
-        <v>4636.104081077739</v>
+        <v>4814.121469650944</v>
       </c>
       <c r="R17" t="n">
-        <v>4805.258145830796</v>
+        <v>4814.121469650944</v>
       </c>
       <c r="S17" t="n">
-        <v>4734.104307811869</v>
+        <v>4730.469595834781</v>
       </c>
       <c r="T17" t="n">
-        <v>4514.037080684908</v>
+        <v>4510.40236870782</v>
       </c>
       <c r="U17" t="n">
-        <v>4254.814778001924</v>
+        <v>4251.180066024836</v>
       </c>
       <c r="V17" t="n">
-        <v>3892.197827935751</v>
+        <v>3888.563115958663</v>
       </c>
       <c r="W17" t="n">
-        <v>3487.342373346784</v>
+        <v>3483.707661369696</v>
       </c>
       <c r="X17" t="n">
-        <v>3068.199909926095</v>
+        <v>3064.565197949007</v>
       </c>
       <c r="Y17" t="n">
-        <v>2659.913786225749</v>
+        <v>2949.221207258935</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.2769079079087</v>
+        <v>602.4541743843117</v>
       </c>
       <c r="C18" t="n">
-        <v>495.820446744551</v>
+        <v>495.997713220954</v>
       </c>
       <c r="D18" t="n">
-        <v>400.7301578911043</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E18" t="n">
-        <v>306.609743218058</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F18" t="n">
-        <v>223.2259048342196</v>
+        <v>223.4031713106226</v>
       </c>
       <c r="G18" t="n">
-        <v>137.8408151004035</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H18" t="n">
-        <v>96.10516291661592</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="I18" t="n">
-        <v>122.1688360770735</v>
+        <v>122.3461025534765</v>
       </c>
       <c r="J18" t="n">
-        <v>446.7271610432859</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="K18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="L18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="M18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="N18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="O18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="P18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="Q18" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R18" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S18" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T18" t="n">
-        <v>1565.71084317441</v>
+        <v>1565.888109650813</v>
       </c>
       <c r="U18" t="n">
-        <v>1389.374296174378</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V18" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W18" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X18" t="n">
-        <v>850.0665882084511</v>
+        <v>850.2438546848541</v>
       </c>
       <c r="Y18" t="n">
-        <v>723.5808089876718</v>
+        <v>723.7580754640749</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1086.503374303173</v>
+        <v>946.7784664699502</v>
       </c>
       <c r="C19" t="n">
-        <v>913.9416627863976</v>
+        <v>774.2167549531752</v>
       </c>
       <c r="D19" t="n">
-        <v>748.0636699879203</v>
+        <v>608.3387621546979</v>
       </c>
       <c r="E19" t="n">
-        <v>578.3056662386575</v>
+        <v>438.5807584054351</v>
       </c>
       <c r="F19" t="n">
-        <v>401.5986122004138</v>
+        <v>261.8737043671912</v>
       </c>
       <c r="G19" t="n">
-        <v>236.0073372262414</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="H19" t="n">
-        <v>96.10516291661592</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="I19" t="n">
-        <v>96.10516291661592</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="J19" t="n">
-        <v>182.6848480813058</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K19" t="n">
-        <v>457.4433026524413</v>
+        <v>457.6205691288444</v>
       </c>
       <c r="L19" t="n">
-        <v>875.6531844204023</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N19" t="n">
-        <v>1777.39585475896</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O19" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P19" t="n">
-        <v>2544.571997955083</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q19" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R19" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S19" t="n">
-        <v>2712.764772819416</v>
+        <v>2694.702870253134</v>
       </c>
       <c r="T19" t="n">
-        <v>2466.885326397871</v>
+        <v>2448.823423831589</v>
       </c>
       <c r="U19" t="n">
-        <v>2310.115330917917</v>
+        <v>2170.390423084694</v>
       </c>
       <c r="V19" t="n">
-        <v>2023.159822788347</v>
+        <v>1883.434914955125</v>
       </c>
       <c r="W19" t="n">
-        <v>1751.133418374639</v>
+        <v>1611.408510541416</v>
       </c>
       <c r="X19" t="n">
-        <v>1505.741663708052</v>
+        <v>1366.016755874829</v>
       </c>
       <c r="Y19" t="n">
-        <v>1278.32199302216</v>
+        <v>1138.597085188937</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2221.116179943602</v>
+        <v>2522.921636774028</v>
       </c>
       <c r="C20" t="n">
-        <v>1782.973707127026</v>
+        <v>2084.779163957451</v>
       </c>
       <c r="D20" t="n">
-        <v>1347.06392230147</v>
+        <v>1648.869379131896</v>
       </c>
       <c r="E20" t="n">
-        <v>913.2891774597651</v>
+        <v>1215.094634290191</v>
       </c>
       <c r="F20" t="n">
-        <v>787.0499382229957</v>
+        <v>787.2272046993987</v>
       </c>
       <c r="G20" t="n">
-        <v>385.6521068462596</v>
+        <v>385.8293733226627</v>
       </c>
       <c r="H20" t="n">
-        <v>96.52195228947589</v>
+        <v>96.69921876587888</v>
       </c>
       <c r="I20" t="n">
-        <v>96.1051629166159</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="J20" t="n">
-        <v>531.3598503695339</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="K20" t="n">
-        <v>1365.710142327712</v>
+        <v>476.103018180781</v>
       </c>
       <c r="L20" t="n">
-        <v>1365.710142327712</v>
+        <v>1551.16298443364</v>
       </c>
       <c r="M20" t="n">
-        <v>1365.710142327712</v>
+        <v>2708.210819644191</v>
       </c>
       <c r="N20" t="n">
-        <v>2450.269818468498</v>
+        <v>3833.941803080638</v>
       </c>
       <c r="O20" t="n">
-        <v>3430.449485038804</v>
+        <v>4814.121469650944</v>
       </c>
       <c r="P20" t="n">
-        <v>4258.7593598722</v>
+        <v>4814.121469650944</v>
       </c>
       <c r="Q20" t="n">
-        <v>4805.258145830795</v>
+        <v>4814.121469650944</v>
       </c>
       <c r="R20" t="n">
-        <v>4805.258145830795</v>
+        <v>4814.121469650944</v>
       </c>
       <c r="S20" t="n">
-        <v>4721.606272014632</v>
+        <v>4730.469595834781</v>
       </c>
       <c r="T20" t="n">
-        <v>4501.539044887671</v>
+        <v>4510.40236870782</v>
       </c>
       <c r="U20" t="n">
-        <v>4242.316742204687</v>
+        <v>4251.180066024836</v>
       </c>
       <c r="V20" t="n">
-        <v>3879.699792138514</v>
+        <v>3888.563115958663</v>
       </c>
       <c r="W20" t="n">
-        <v>3474.844337549547</v>
+        <v>3483.707661369696</v>
       </c>
       <c r="X20" t="n">
-        <v>3055.701874128858</v>
+        <v>3064.565197949007</v>
       </c>
       <c r="Y20" t="n">
-        <v>2647.415750428511</v>
+        <v>2949.221207258936</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.2769079079087</v>
+        <v>602.4541743843117</v>
       </c>
       <c r="C21" t="n">
-        <v>495.820446744551</v>
+        <v>495.997713220954</v>
       </c>
       <c r="D21" t="n">
-        <v>400.7301578911042</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E21" t="n">
-        <v>306.6097432180579</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F21" t="n">
-        <v>223.2259048342195</v>
+        <v>223.4031713106226</v>
       </c>
       <c r="G21" t="n">
-        <v>137.8408151004034</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H21" t="n">
-        <v>96.1051629166159</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="I21" t="n">
-        <v>122.1688360770735</v>
+        <v>122.3461025534765</v>
       </c>
       <c r="J21" t="n">
-        <v>446.7271610432858</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="K21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="L21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="M21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="N21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="O21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="P21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="Q21" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R21" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S21" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T21" t="n">
-        <v>1565.71084317441</v>
+        <v>1565.888109650813</v>
       </c>
       <c r="U21" t="n">
-        <v>1389.374296174378</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V21" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W21" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X21" t="n">
-        <v>850.0665882084511</v>
+        <v>850.2438546848541</v>
       </c>
       <c r="Y21" t="n">
-        <v>723.5808089876718</v>
+        <v>723.7580754640749</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1175.163323528497</v>
+        <v>805.776266810631</v>
       </c>
       <c r="C22" t="n">
-        <v>1002.601612011722</v>
+        <v>633.2145552938559</v>
       </c>
       <c r="D22" t="n">
-        <v>836.723619213245</v>
+        <v>467.3365624953786</v>
       </c>
       <c r="E22" t="n">
-        <v>666.9656154639822</v>
+        <v>297.5785587461159</v>
       </c>
       <c r="F22" t="n">
-        <v>490.2585614257384</v>
+        <v>261.8737043671912</v>
       </c>
       <c r="G22" t="n">
-        <v>324.667286451566</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="H22" t="n">
-        <v>184.7651121419406</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="I22" t="n">
-        <v>96.1051629166159</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="J22" t="n">
-        <v>182.6848480813058</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K22" t="n">
-        <v>457.4433026524413</v>
+        <v>457.6205691288444</v>
       </c>
       <c r="L22" t="n">
-        <v>875.6531844204023</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N22" t="n">
-        <v>1777.39585475896</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O22" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P22" t="n">
-        <v>2544.571997955083</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q22" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R22" t="n">
-        <v>2691.346951524787</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S22" t="n">
-        <v>2532.105582822784</v>
+        <v>2553.700670593815</v>
       </c>
       <c r="T22" t="n">
-        <v>2286.226136401239</v>
+        <v>2307.82122417227</v>
       </c>
       <c r="U22" t="n">
-        <v>2111.819772013672</v>
+        <v>2029.388223425376</v>
       </c>
       <c r="V22" t="n">
-        <v>2111.819772013672</v>
+        <v>1742.432715295806</v>
       </c>
       <c r="W22" t="n">
-        <v>1839.793367599964</v>
+        <v>1470.406310882098</v>
       </c>
       <c r="X22" t="n">
-        <v>1594.401612933376</v>
+        <v>1225.01455621551</v>
       </c>
       <c r="Y22" t="n">
-        <v>1366.981942247485</v>
+        <v>997.5948855296181</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5990,13 +5990,13 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>811.754677688392</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>639.1929661716169</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324586</v>
+        <v>639.1929661716169</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F25" t="n">
-        <v>267.8521152449521</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6148,7 +6148,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L25" t="n">
         <v>881.8088617745661</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1057.14643235498</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>884.5847208382046</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>718.7067280397273</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>548.9487242904646</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>372.2416702522208</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>206.6503952780485</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1248.965051073967</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309359</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
         <v>614.3171730324584</v>
@@ -6646,22 +6646,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2700.681281130894</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2454.801834709349</v>
       </c>
       <c r="U31" t="n">
         <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W31" t="n">
         <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1371.995166752589</v>
       </c>
       <c r="Y31" t="n">
         <v>1144.575496066698</v>
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309358</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6923,40 +6923,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7075,16 +7075,16 @@
         <v>780.1951658309358</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,7 +7120,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130884</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
         <v>2454.80183470935</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206711</v>
+        <v>2454.261399483849</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2027.925596445149</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390331</v>
+        <v>1603.82248139747</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1181.854406333642</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835857</v>
+        <v>765.7936465207268</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197257</v>
+        <v>376.2024849218675</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581808</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="J38" t="n">
-        <v>532.8213911287357</v>
+        <v>534.1336875958783</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.171683086914</v>
+        <v>1368.483979554056</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>2443.543945806915</v>
       </c>
       <c r="M38" t="n">
-        <v>2442.231649339773</v>
+        <v>2443.543945806915</v>
       </c>
       <c r="N38" t="n">
-        <v>2442.231649339773</v>
+        <v>2443.543945806915</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245845</v>
+        <v>3399.987281602979</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079241</v>
+        <v>4228.297156436375</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037836</v>
+        <v>4774.79594239497</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>4943.950007148026</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4872.10480310974</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4663.844245760655</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4416.428612855549</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567252</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3672.569547756162</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566213</v>
+        <v>3265.233754113349</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2868.75430019088</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342534</v>
       </c>
       <c r="C39" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708956</v>
       </c>
       <c r="D39" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174489</v>
       </c>
       <c r="E39" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444026</v>
       </c>
       <c r="F39" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605642</v>
       </c>
       <c r="G39" t="n">
-        <v>139.3023558596054</v>
+        <v>140.6146523267481</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362754</v>
+        <v>124.9426733034181</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="K39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="L39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="M39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="N39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="O39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="P39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q39" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R39" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S39" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T39" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U39" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V39" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W39" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X39" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347957</v>
       </c>
       <c r="Y39" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140165</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397566</v>
+        <v>985.7887806612116</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936673</v>
+        <v>825.0337389223133</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080661</v>
+        <v>670.9624159017128</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716793</v>
+        <v>513.0110819303268</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463116</v>
+        <v>348.1106976699597</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850154</v>
+        <v>194.3260924736641</v>
       </c>
       <c r="H40" t="n">
-        <v>169.826945488266</v>
+        <v>175.7322795904084</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569474</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823631</v>
+        <v>483.36057397738</v>
       </c>
       <c r="L40" t="n">
-        <v>925.334784885684</v>
+        <v>913.1421727946381</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024848</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.02827723179</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506868</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2628.347854526507</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2808.112346440136</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2798.501194923385</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2651.066495999258</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281948</v>
+        <v>2416.99371935559</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2150.367388386572</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>1875.218550034879</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1614.998815399048</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1381.413730510337</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703677</v>
+        <v>1165.800729602322</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483849</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.648111803009</v>
+        <v>2027.925596445149</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.138034390329</v>
+        <v>1603.82248139747</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.7629969615</v>
+        <v>1181.854406333642</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835843</v>
+        <v>765.7936465207267</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>376.2024849218675</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>534.1336875958783</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>1368.483979554056</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>2443.543945806915</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>2443.543945806915</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>2443.543945806915</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245845</v>
+        <v>3399.987281602979</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079241</v>
+        <v>4228.297156436375</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037836</v>
+        <v>4774.79594239497</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790892</v>
+        <v>4943.950007148026</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387605</v>
+        <v>4872.10480310974</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4663.844245760655</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4416.428612855549</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567252</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3672.569547756162</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3265.233754113349</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2868.75430019088</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342534</v>
       </c>
       <c r="C42" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708956</v>
       </c>
       <c r="D42" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174489</v>
       </c>
       <c r="E42" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444026</v>
       </c>
       <c r="F42" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605642</v>
       </c>
       <c r="G42" t="n">
-        <v>139.3023558596054</v>
+        <v>140.6146523267481</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362754</v>
+        <v>124.9426733034181</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="K42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="L42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="M42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="N42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="O42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q42" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R42" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S42" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T42" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U42" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V42" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W42" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X42" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347957</v>
       </c>
       <c r="Y42" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140165</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>985.7887806612116</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936669</v>
+        <v>825.0337389223133</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080657</v>
+        <v>670.9624159017128</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716791</v>
+        <v>513.0110819303268</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463113</v>
+        <v>348.1106976699597</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850151</v>
+        <v>194.3260924736641</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>175.7322795904084</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569474</v>
       </c>
       <c r="K43" t="n">
-        <v>491.051549882363</v>
+        <v>483.36057397738</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856839</v>
+        <v>913.1421727946381</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024848</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.02827723179</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506868</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2628.347854526507</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2808.112346440136</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2798.501194923385</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2651.066495999258</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2416.99371935559</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2150.367388386572</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1875.21855003488</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1614.998815399048</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976692</v>
+        <v>1381.413730510337</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703677</v>
+        <v>1165.800729602322</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483849</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.648111803009</v>
+        <v>2027.925596445149</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.82248139747</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1181.854406333642</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>765.7936465207267</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197256</v>
+        <v>376.2024849218675</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="J44" t="n">
-        <v>532.8213911287357</v>
+        <v>534.1336875958783</v>
       </c>
       <c r="K44" t="n">
-        <v>1228.461808239093</v>
+        <v>1368.483979554056</v>
       </c>
       <c r="L44" t="n">
-        <v>1228.461808239093</v>
+        <v>2443.543945806915</v>
       </c>
       <c r="M44" t="n">
-        <v>1228.461808239093</v>
+        <v>2443.543945806915</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.19279167554</v>
+        <v>2443.543945806915</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245846</v>
+        <v>3399.987281602979</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079242</v>
+        <v>4228.297156436375</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037837</v>
+        <v>4774.79594239497</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>4943.950007148026</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4872.10480310974</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4663.844245760655</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4416.428612855549</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567252</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3672.569547756162</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3265.23375411335</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2868.75430019088</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342534</v>
       </c>
       <c r="C45" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708956</v>
       </c>
       <c r="D45" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174489</v>
       </c>
       <c r="E45" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444026</v>
       </c>
       <c r="F45" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605642</v>
       </c>
       <c r="G45" t="n">
-        <v>139.3023558596054</v>
+        <v>140.6146523267481</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362755</v>
+        <v>124.9426733034181</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R45" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S45" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T45" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V45" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W45" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X45" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347957</v>
       </c>
       <c r="Y45" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140165</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>985.7887806612111</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936675</v>
+        <v>825.0337389223128</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080662</v>
+        <v>670.9624159017121</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716796</v>
+        <v>513.0110819303261</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463119</v>
+        <v>348.1106976699591</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850155</v>
+        <v>194.3260924736635</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882661</v>
+        <v>175.7322795904084</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758675</v>
+        <v>197.0304023569474</v>
       </c>
       <c r="K46" t="n">
-        <v>491.051549882363</v>
+        <v>483.36057397738</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856839</v>
+        <v>913.1421727946381</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024848</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.02827723179</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506868</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2628.347854526507</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2808.112346440136</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2798.501194923385</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2651.066495999258</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2416.99371935559</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2150.367388386572</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1875.218550034879</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1614.998815399048</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1381.413730510337</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703678</v>
+        <v>1165.800729602322</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,22 +8140,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.55209558322758</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,10 +8465,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>478.8828999897191</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>554.6080577318742</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>554.6080577318742</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>106.7111812840084</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8611,7 +8611,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3587937794090976</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1142.637829020677</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1013.397872087503</v>
+        <v>936.9046133549446</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>924.6521327148791</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>18.36946185017496</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9170,13 +9170,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>828.813446166846</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>18.36946185017496</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>383.6571603916789</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1095.514824384632</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9638,16 +9638,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>986.1859873202727</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,22 +10592,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>901.152332228356</v>
+        <v>966.1043795919836</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>901.152332228356</v>
+        <v>966.1043795919836</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11297,19 +11297,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>702.6670879902599</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>966.1043795919836</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>152.971244867854</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>225.6425647383832</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>80.74535359478919</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>206.7847351230404</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>34.67467827192563</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,10 +23701,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>12.37305543926397</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>290.0127116801741</v>
       </c>
     </row>
     <row r="18">
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,13 +23938,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>120.4463752142714</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>298.6119084504828</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>290.0127116801726</v>
       </c>
     </row>
     <row r="21">
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>37.71410486740326</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627249</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>122.9308428424045</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627257</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627154</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>108.4066747320084</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>108.4066747320081</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>108.4066747320088</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>782406.3706298857</v>
+        <v>789889.2718644862</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>782406.3706298857</v>
+        <v>789889.2718644862</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>786415.5636793101</v>
+        <v>789889.2718644862</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>728181.7361419573</v>
+        <v>736818.1835811757</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755398.2187690022</v>
+        <v>756426.0052165799</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755398.2187690025</v>
+        <v>756426.0052165797</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755398.2187690021</v>
+        <v>756426.00521658</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>791088.6769348572</v>
+        <v>791088.676934857</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>791088.6769348576</v>
+        <v>791088.6769348572</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>802939.5041424328</v>
+        <v>799619.7595893589</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>802939.5041424328</v>
+        <v>799619.7595893589</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>802939.5041424328</v>
+        <v>799619.7595893589</v>
       </c>
     </row>
   </sheetData>
@@ -26320,16 +26320,16 @@
         <v>174247.8789643827</v>
       </c>
       <c r="E2" t="n">
-        <v>157612.7006848729</v>
+        <v>159482.0332122584</v>
       </c>
       <c r="F2" t="n">
-        <v>163503.6247730256</v>
+        <v>163726.0859934734</v>
       </c>
       <c r="G2" t="n">
-        <v>163503.6247730256</v>
+        <v>163726.0859934734</v>
       </c>
       <c r="H2" t="n">
-        <v>163503.6247730255</v>
+        <v>163726.0859934734</v>
       </c>
       <c r="I2" t="n">
         <v>171228.7148446394</v>
@@ -26341,19 +26341,19 @@
         <v>171228.7148446394</v>
       </c>
       <c r="L2" t="n">
-        <v>171228.7148446394</v>
+        <v>171228.7148446395</v>
       </c>
       <c r="M2" t="n">
         <v>171228.7148446395</v>
       </c>
       <c r="N2" t="n">
-        <v>174247.8789643826</v>
+        <v>173402.3069014732</v>
       </c>
       <c r="O2" t="n">
-        <v>174247.8789643825</v>
+        <v>173402.306901473</v>
       </c>
       <c r="P2" t="n">
-        <v>174247.8789643825</v>
+        <v>173402.3069014731</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>40478.87875178206</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>175572.7530518681</v>
+        <v>147420.5464117495</v>
       </c>
       <c r="F3" t="n">
-        <v>16812.40227510025</v>
+        <v>12112.3140557937</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20461.54847120716</v>
+        <v>19872.31248781268</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>32980.84506379704</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>146539.3711242547</v>
+        <v>123042.5210430561</v>
       </c>
       <c r="N3" t="n">
-        <v>12988.56827099787</v>
+        <v>9350.88246407839</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
-        <v>161750.2044208487</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>37852.87718644965</v>
+        <v>38301.82333274552</v>
       </c>
       <c r="F4" t="n">
-        <v>39267.66435178971</v>
+        <v>39321.09150086951</v>
       </c>
       <c r="G4" t="n">
-        <v>39267.66435178972</v>
+        <v>39321.09150086952</v>
       </c>
       <c r="H4" t="n">
-        <v>39267.6643517897</v>
+        <v>39321.09150086952</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26448,16 +26448,16 @@
         <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>55396.20108640297</v>
+        <v>51403.24928127273</v>
       </c>
       <c r="O4" t="n">
-        <v>55396.20108640297</v>
+        <v>51403.24928127273</v>
       </c>
       <c r="P4" t="n">
-        <v>55396.20108640298</v>
+        <v>51403.24928127273</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>67347.76991009794</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>69472.38000445714</v>
+        <v>70604.44784155181</v>
       </c>
       <c r="F5" t="n">
-        <v>73039.9238166281</v>
+        <v>73174.64633869435</v>
       </c>
       <c r="G5" t="n">
-        <v>73039.9238166281</v>
+        <v>73174.64633869435</v>
       </c>
       <c r="H5" t="n">
-        <v>73039.92381662808</v>
+        <v>73174.64633869435</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608971</v>
+        <v>76130.68928099074</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608971</v>
+        <v>76130.68928099074</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>76130.68928099074</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-214932.7428883628</v>
+        <v>-263048.0914203243</v>
       </c>
       <c r="C6" t="n">
-        <v>-72741.44222865292</v>
+        <v>-39348.39283627951</v>
       </c>
       <c r="D6" t="n">
-        <v>-95328.97411834594</v>
+        <v>-39348.39283627948</v>
       </c>
       <c r="E6" t="n">
-        <v>-125285.309557902</v>
+        <v>-96958.36780265093</v>
       </c>
       <c r="F6" t="n">
-        <v>34383.63432950752</v>
+        <v>39037.09722910881</v>
       </c>
       <c r="G6" t="n">
-        <v>51196.03660460778</v>
+        <v>51149.41128490253</v>
       </c>
       <c r="H6" t="n">
-        <v>51196.0366046077</v>
+        <v>51149.41128490253</v>
       </c>
       <c r="I6" t="n">
-        <v>31925.97583772706</v>
+        <v>32491.98748173889</v>
       </c>
       <c r="J6" t="n">
-        <v>-58626.94103605597</v>
+        <v>-122287.0487481546</v>
       </c>
       <c r="K6" t="n">
-        <v>52387.52430893421</v>
+        <v>52364.29996955157</v>
       </c>
       <c r="L6" t="n">
-        <v>19406.67924513717</v>
+        <v>52364.29996955166</v>
       </c>
       <c r="M6" t="n">
-        <v>-94151.84681532043</v>
+        <v>-70678.22107350449</v>
       </c>
       <c r="N6" t="n">
-        <v>30347.49488089207</v>
+        <v>36510.98147464741</v>
       </c>
       <c r="O6" t="n">
-        <v>43336.0631518898</v>
+        <v>45861.8639387256</v>
       </c>
       <c r="P6" t="n">
-        <v>43336.06315188977</v>
+        <v>45861.86393872569</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>554.6080577318742</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1142.637829020677</v>
+        <v>1161.257365814997</v>
       </c>
       <c r="F4" t="n">
-        <v>1201.314536457699</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="G4" t="n">
-        <v>1201.314536457699</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="H4" t="n">
-        <v>1201.314536457699</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787007</v>
       </c>
       <c r="O4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787007</v>
       </c>
       <c r="P4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787007</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>130.3122002117698</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>588.0297712888025</v>
+        <v>493.74215920714</v>
       </c>
       <c r="F4" t="n">
-        <v>58.67670743702229</v>
+        <v>42.27300159773877</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>76.94596692704658</v>
+        <v>74.73013597200929</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>130.3122002117698</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>588.0297712888025</v>
+        <v>493.74215920714</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>130.3122002117698</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>588.0297712888025</v>
+        <v>493.74215920714</v>
       </c>
       <c r="N4" t="n">
-        <v>58.67670743702229</v>
+        <v>42.27300159773877</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>195.5265377684439</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,7 +27385,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>395.238234579987</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.37584963339511</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>117.7661826744375</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>104.2627093945165</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>113.5502680755937</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
       </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>77.73307607587176</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>32.22005456955806</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>367.0030939464988</v>
+        <v>309.2876847572279</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,16 +28014,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>70.82647158657811</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874734</v>
+        <v>11.68860308009799</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.55209558322758</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>478.8828999897191</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>554.6080577318742</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>554.6080577318742</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>106.7111812840084</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -35343,13 +35343,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3587937794090976</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1142.637829020677</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1013.397872087503</v>
+        <v>936.9046133549446</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,16 +35647,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>924.6521327148791</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>18.36946185017496</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,10 +35817,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35884,19 +35884,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>828.813446166846</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>18.36946185017496</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,10 +36054,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473919</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>383.6571603916789</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1095.514824384632</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,10 +36291,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36358,16 +36358,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>986.1859873202727</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36519,7 +36519,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37555,7 +37555,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>901.152332228356</v>
+        <v>966.1043795919836</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.689937777828</v>
+        <v>99.14283051917864</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761946</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881395</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446566</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756985</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>435.5969356313922</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>362.7056676966049</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>181.5802948622518</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37792,7 +37792,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>901.152332228356</v>
+        <v>966.1043795919836</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>99.14283051917864</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761946</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467888</v>
+        <v>434.1228270881395</v>
       </c>
       <c r="M43" t="n">
-        <v>480.360828703306</v>
+        <v>475.8137214446566</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756985</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>435.5969356313922</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>362.7056676966049</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>181.5802948622518</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,19 +38017,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>702.6670879902599</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>966.1043795919836</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.6899377778279</v>
+        <v>99.14283051917864</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761946</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881395</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033062</v>
+        <v>475.8137214446566</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343477</v>
+        <v>458.4146668756987</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>435.5969356313924</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552542</v>
+        <v>362.7056676966049</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.1274021209015</v>
+        <v>181.5802948622518</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
